--- a/uso/data/201903081001Data.xlsx
+++ b/uso/data/201903081001Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Desktop/MDproyecto/codigo/uso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapaulaherrero/Documents/documentosPersonal/My Documents/ucv/maestria/MD/MDproyecto/codigo/uso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57860B5-02DC-FC44-AB16-B450156D8228}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58239C95-F403-4246-B47D-0285693457A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{428D75EF-7882-5342-AC9C-C4ACBBEAE9B7}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{428D75EF-7882-5342-AC9C-C4ACBBEAE9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4286,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8F434E-90C7-A143-A887-667BE7293DB8}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94639F98-9173-B94B-A0EC-74CAAE2FA0EA}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
